--- a/data/output/FV2504_FV2410/UTILMD/55156.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55156.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4418" uniqueCount="501">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4439" uniqueCount="501">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1706,6 +1706,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U258" totalsRowShown="0">
+  <autoFilter ref="A1:U258"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1995,7 +2025,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -12870,5 +12903,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55156.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55156.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5409" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5355" uniqueCount="750">
   <si>
     <t>#</t>
   </si>
@@ -3448,48 +3448,46 @@
       <c r="V12" s="9"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M13" s="5" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
+      <c r="N13" s="2"/>
+      <c r="O13" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="P13" s="5"/>
-      <c r="Q13" s="5" t="s">
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="R13" s="5"/>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5" t="s">
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V13" s="5"/>
+      <c r="V13" s="2"/>
     </row>
     <row r="14" spans="1:22">
       <c r="A14" s="5" t="s">
@@ -3575,9 +3573,7 @@
       <c r="K15" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="L15" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L15" s="4"/>
       <c r="M15" s="5" t="s">
         <v>24</v>
       </c>
@@ -3660,44 +3656,42 @@
       <c r="V16" s="5"/>
     </row>
     <row r="17" spans="1:22">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M17" s="5" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="5" t="s">
+      <c r="N17" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O17" s="5"/>
-      <c r="P17" s="5"/>
-      <c r="Q17" s="5"/>
-      <c r="R17" s="5"/>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5" t="s">
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V17" s="5"/>
+      <c r="V17" s="2"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="5" t="s">
@@ -3723,9 +3717,7 @@
         <v>316</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L18" s="4"/>
       <c r="M18" s="5" t="s">
         <v>25</v>
       </c>
@@ -3835,9 +3827,7 @@
         <v>317</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L20" s="4"/>
       <c r="M20" s="5" t="s">
         <v>25</v>
       </c>
@@ -3893,9 +3883,7 @@
         <v>317</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L21" s="4"/>
       <c r="M21" s="5" t="s">
         <v>25</v>
       </c>
@@ -3951,9 +3939,7 @@
         <v>317</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L22" s="4"/>
       <c r="M22" s="5" t="s">
         <v>25</v>
       </c>
@@ -3980,44 +3966,42 @@
       <c r="V22" s="5"/>
     </row>
     <row r="23" spans="1:22">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K23" s="5"/>
-      <c r="L23" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M23" s="5" t="s">
+      <c r="K23" s="2"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O23" s="5"/>
-      <c r="P23" s="5"/>
-      <c r="Q23" s="5"/>
-      <c r="R23" s="5"/>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5" t="s">
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="V23" s="5"/>
+      <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22">
       <c r="A24" s="5" t="s">
@@ -4043,9 +4027,7 @@
         <v>316</v>
       </c>
       <c r="K24" s="5"/>
-      <c r="L24" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L24" s="4"/>
       <c r="M24" s="5" t="s">
         <v>26</v>
       </c>
@@ -4097,9 +4079,7 @@
         <v>317</v>
       </c>
       <c r="K25" s="5"/>
-      <c r="L25" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L25" s="4"/>
       <c r="M25" s="5" t="s">
         <v>26</v>
       </c>
@@ -4155,9 +4135,7 @@
         <v>317</v>
       </c>
       <c r="K26" s="5"/>
-      <c r="L26" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L26" s="4"/>
       <c r="M26" s="5" t="s">
         <v>26</v>
       </c>
@@ -4772,44 +4750,42 @@
       <c r="V40" s="9"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>536</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K41" s="5"/>
-      <c r="L41" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M41" s="5" t="s">
+      <c r="K41" s="2"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="N41" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="O41" s="5"/>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
-      <c r="U41" s="5" t="s">
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V41" s="5"/>
+      <c r="V41" s="2"/>
     </row>
     <row r="42" spans="1:22">
       <c r="A42" s="5" t="s">
@@ -4835,9 +4811,7 @@
         <v>316</v>
       </c>
       <c r="K42" s="5"/>
-      <c r="L42" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L42" s="4"/>
       <c r="M42" s="5" t="s">
         <v>28</v>
       </c>
@@ -4947,9 +4921,7 @@
         <v>317</v>
       </c>
       <c r="K44" s="5"/>
-      <c r="L44" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L44" s="4"/>
       <c r="M44" s="5" t="s">
         <v>28</v>
       </c>
@@ -5005,9 +4977,7 @@
         <v>317</v>
       </c>
       <c r="K45" s="5"/>
-      <c r="L45" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L45" s="4"/>
       <c r="M45" s="5" t="s">
         <v>28</v>
       </c>
@@ -5063,9 +5033,7 @@
         <v>317</v>
       </c>
       <c r="K46" s="5"/>
-      <c r="L46" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L46" s="4"/>
       <c r="M46" s="5" t="s">
         <v>28</v>
       </c>
@@ -5092,44 +5060,42 @@
       <c r="V46" s="5"/>
     </row>
     <row r="47" spans="1:22">
-      <c r="A47" s="5" t="s">
+      <c r="A47" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K47" s="5"/>
-      <c r="L47" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M47" s="5" t="s">
+      <c r="K47" s="2"/>
+      <c r="L47" s="4"/>
+      <c r="M47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="N47" s="5" t="s">
+      <c r="N47" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="O47" s="5"/>
-      <c r="P47" s="5"/>
-      <c r="Q47" s="5"/>
-      <c r="R47" s="5"/>
-      <c r="S47" s="5"/>
-      <c r="T47" s="5"/>
-      <c r="U47" s="5" t="s">
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V47" s="5"/>
+      <c r="V47" s="2"/>
     </row>
     <row r="48" spans="1:22">
       <c r="A48" s="5" t="s">
@@ -5155,9 +5121,7 @@
         <v>316</v>
       </c>
       <c r="K48" s="5"/>
-      <c r="L48" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L48" s="4"/>
       <c r="M48" s="5" t="s">
         <v>29</v>
       </c>
@@ -5209,9 +5173,7 @@
         <v>317</v>
       </c>
       <c r="K49" s="5"/>
-      <c r="L49" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L49" s="4"/>
       <c r="M49" s="5" t="s">
         <v>29</v>
       </c>
@@ -5267,9 +5229,7 @@
         <v>317</v>
       </c>
       <c r="K50" s="5"/>
-      <c r="L50" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L50" s="4"/>
       <c r="M50" s="5" t="s">
         <v>29</v>
       </c>
@@ -6148,46 +6108,44 @@
       </c>
     </row>
     <row r="71" spans="1:22">
-      <c r="A71" s="5" t="s">
+      <c r="A71" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D71" s="5"/>
-      <c r="E71" s="5"/>
-      <c r="F71" s="5"/>
-      <c r="G71" s="5"/>
-      <c r="H71" s="5"/>
-      <c r="I71" s="5"/>
-      <c r="J71" s="5" t="s">
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K71" s="5" t="s">
+      <c r="K71" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="L71" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M71" s="5" t="s">
+      <c r="L71" s="4"/>
+      <c r="M71" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N71" s="5" t="s">
+      <c r="N71" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O71" s="5"/>
-      <c r="P71" s="5"/>
-      <c r="Q71" s="5"/>
-      <c r="R71" s="5"/>
-      <c r="S71" s="5"/>
-      <c r="T71" s="5"/>
-      <c r="U71" s="5" t="s">
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+      <c r="R71" s="2"/>
+      <c r="S71" s="2"/>
+      <c r="T71" s="2"/>
+      <c r="U71" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="V71" s="5" t="s">
+      <c r="V71" s="2" t="s">
         <v>348</v>
       </c>
     </row>
@@ -6360,44 +6318,42 @@
       </c>
     </row>
     <row r="75" spans="1:22">
-      <c r="A75" s="5" t="s">
+      <c r="A75" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="B75" s="5" t="s">
+      <c r="B75" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5" t="s">
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M75" s="5" t="s">
+      <c r="K75" s="2"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N75" s="5" t="s">
+      <c r="N75" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5" t="s">
+      <c r="O75" s="2"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+      <c r="R75" s="2"/>
+      <c r="S75" s="2"/>
+      <c r="T75" s="2"/>
+      <c r="U75" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V75" s="5"/>
+      <c r="V75" s="2"/>
     </row>
     <row r="76" spans="1:22">
       <c r="A76" s="5" t="s">
@@ -10623,9 +10579,7 @@
         <v>317</v>
       </c>
       <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L168" s="4"/>
       <c r="M168" s="5" t="s">
         <v>45</v>
       </c>
@@ -10791,9 +10745,7 @@
         <v>335</v>
       </c>
       <c r="K171" s="5"/>
-      <c r="L171" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>46</v>
       </c>
@@ -11880,44 +11832,42 @@
       </c>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C197" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D197" s="5"/>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5" t="s">
+      <c r="C197" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="M197" s="5" t="s">
+      <c r="K197" s="2"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N197" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O197" s="5"/>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-      <c r="U197" s="5" t="s">
+      <c r="N197" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O197" s="2"/>
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V197" s="5"/>
+      <c r="V197" s="2"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="5" t="s">
@@ -13723,9 +13673,7 @@
         <v>317</v>
       </c>
       <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L237" s="4"/>
       <c r="M237" s="5" t="s">
         <v>54</v>
       </c>
@@ -13955,9 +13903,7 @@
         <v>317</v>
       </c>
       <c r="K241" s="5"/>
-      <c r="L241" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="L241" s="4"/>
       <c r="M241" s="5" t="s">
         <v>54</v>
       </c>

--- a/data/output/FV2504_FV2410/UTILMD/55156.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55156.xlsx
@@ -2437,7 +2437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2466,11 +2466,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2910,7 +2916,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -3278,7 +3284,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3470,7 +3476,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N13" s="2"/>
@@ -3676,7 +3682,7 @@
       </c>
       <c r="K17" s="2"/>
       <c r="L17" s="4"/>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N17" s="2" t="s">
@@ -3986,7 +3992,7 @@
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="4"/>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N23" s="2" t="s">
@@ -4168,24 +4174,24 @@
       <c r="B27" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="C27" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10" t="s">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10" t="s">
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K27" s="10"/>
-      <c r="L27" s="11" t="s">
+      <c r="K27" s="11"/>
+      <c r="L27" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M27" s="5"/>
@@ -4203,33 +4209,33 @@
       <c r="A28" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="C28" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10" t="s">
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
         <v>252</v>
       </c>
-      <c r="J28" s="10" t="s">
+      <c r="J28" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="K28" s="10" t="s">
+      <c r="K28" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="L28" s="11" t="s">
+      <c r="L28" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M28" s="5"/>
@@ -4247,33 +4253,33 @@
       <c r="A29" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="C29" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="F29" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="G29" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
+      <c r="H29" s="11"/>
+      <c r="I29" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="J29" s="10" t="s">
+      <c r="J29" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K29" s="10"/>
-      <c r="L29" s="11" t="s">
+      <c r="K29" s="11"/>
+      <c r="L29" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M29" s="5"/>
@@ -4291,31 +4297,31 @@
       <c r="A30" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="C30" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10" t="s">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11" t="s">
         <v>176</v>
       </c>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="J30" s="10" t="s">
+      <c r="J30" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K30" s="10"/>
-      <c r="L30" s="11" t="s">
+      <c r="K30" s="11"/>
+      <c r="L30" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M30" s="5"/>
@@ -4333,31 +4339,31 @@
       <c r="A31" s="5" t="s">
         <v>527</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C31" s="10" t="s">
+      <c r="C31" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="E31" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10" t="s">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="J31" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K31" s="10"/>
-      <c r="L31" s="11" t="s">
+      <c r="K31" s="11"/>
+      <c r="L31" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M31" s="5"/>
@@ -4375,31 +4381,31 @@
       <c r="A32" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B32" s="10" t="s">
+      <c r="B32" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C32" s="10" t="s">
+      <c r="C32" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="E32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="J32" s="10" t="s">
+      <c r="J32" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K32" s="10"/>
-      <c r="L32" s="11" t="s">
+      <c r="K32" s="11"/>
+      <c r="L32" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M32" s="5"/>
@@ -4417,31 +4423,31 @@
       <c r="A33" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="B33" s="10" t="s">
+      <c r="B33" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="10" t="s">
+      <c r="C33" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10" t="s">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10" t="s">
+      <c r="H33" s="11"/>
+      <c r="I33" s="11" t="s">
         <v>257</v>
       </c>
-      <c r="J33" s="10" t="s">
+      <c r="J33" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K33" s="10"/>
-      <c r="L33" s="11" t="s">
+      <c r="K33" s="11"/>
+      <c r="L33" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M33" s="5"/>
@@ -4472,7 +4478,7 @@
       <c r="L34" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M34" s="9" t="s">
+      <c r="M34" s="13" t="s">
         <v>372</v>
       </c>
       <c r="N34" s="9" t="s">
@@ -4770,7 +4776,7 @@
       </c>
       <c r="K41" s="2"/>
       <c r="L41" s="4"/>
-      <c r="M41" s="2" t="s">
+      <c r="M41" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N41" s="2" t="s">
@@ -5080,7 +5086,7 @@
       </c>
       <c r="K47" s="2"/>
       <c r="L47" s="4"/>
-      <c r="M47" s="2" t="s">
+      <c r="M47" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N47" s="2" t="s">
@@ -5262,24 +5268,24 @@
       <c r="B51" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="C51" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10" t="s">
+      <c r="E51" s="11"/>
+      <c r="F51" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10" t="s">
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K51" s="10"/>
-      <c r="L51" s="11" t="s">
+      <c r="K51" s="11"/>
+      <c r="L51" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M51" s="5"/>
@@ -5297,33 +5303,33 @@
       <c r="A52" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="B52" s="10" t="s">
+      <c r="B52" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="C52" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E52" s="10" t="s">
+      <c r="E52" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F52" s="10" t="s">
+      <c r="F52" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G52" s="10" t="s">
+      <c r="G52" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10" t="s">
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="J52" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K52" s="10"/>
-      <c r="L52" s="11" t="s">
+      <c r="J52" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K52" s="11"/>
+      <c r="L52" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M52" s="5"/>
@@ -5341,33 +5347,33 @@
       <c r="A53" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="B53" s="10" t="s">
+      <c r="B53" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="C53" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F53" s="10" t="s">
+      <c r="F53" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10" t="s">
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="J53" s="10" t="s">
+      <c r="J53" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="K53" s="10" t="s">
+      <c r="K53" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="L53" s="11" t="s">
+      <c r="L53" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M53" s="5"/>
@@ -5385,33 +5391,33 @@
       <c r="A54" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B54" s="10" t="s">
+      <c r="B54" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="C54" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F54" s="10" t="s">
+      <c r="F54" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="G54" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10" t="s">
+      <c r="H54" s="11"/>
+      <c r="I54" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J54" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K54" s="10"/>
-      <c r="L54" s="11" t="s">
+      <c r="J54" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K54" s="11"/>
+      <c r="L54" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M54" s="5"/>
@@ -5432,24 +5438,24 @@
       <c r="B55" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="C55" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10" t="s">
+      <c r="E55" s="11"/>
+      <c r="F55" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10" t="s">
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K55" s="10"/>
-      <c r="L55" s="11" t="s">
+      <c r="K55" s="11"/>
+      <c r="L55" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M55" s="5"/>
@@ -5467,33 +5473,33 @@
       <c r="A56" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="B56" s="10" t="s">
+      <c r="B56" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="C56" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="F56" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="10" t="s">
+      <c r="G56" s="11" t="s">
         <v>183</v>
       </c>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10" t="s">
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="J56" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K56" s="10"/>
-      <c r="L56" s="11" t="s">
+      <c r="J56" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K56" s="11"/>
+      <c r="L56" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M56" s="5"/>
@@ -5511,33 +5517,33 @@
       <c r="A57" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="B57" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="C57" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E57" s="10" t="s">
+      <c r="E57" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F57" s="10" t="s">
+      <c r="F57" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10" t="s">
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11" t="s">
         <v>244</v>
       </c>
-      <c r="J57" s="10" t="s">
+      <c r="J57" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="K57" s="10" t="s">
+      <c r="K57" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="L57" s="11" t="s">
+      <c r="L57" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M57" s="5"/>
@@ -5555,33 +5561,33 @@
       <c r="A58" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="B58" s="10" t="s">
+      <c r="B58" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="C58" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E58" s="10" t="s">
+      <c r="E58" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F58" s="10" t="s">
+      <c r="F58" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="G58" s="10" t="s">
+      <c r="G58" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10" t="s">
+      <c r="H58" s="11"/>
+      <c r="I58" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="J58" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K58" s="10"/>
-      <c r="L58" s="11" t="s">
+      <c r="J58" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K58" s="11"/>
+      <c r="L58" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M58" s="5"/>
@@ -5602,26 +5608,26 @@
       <c r="B59" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10" t="s">
+      <c r="E59" s="11"/>
+      <c r="F59" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10" t="s">
+      <c r="G59" s="11"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11"/>
+      <c r="J59" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="K59" s="10" t="s">
+      <c r="K59" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="L59" s="11" t="s">
+      <c r="L59" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M59" s="5"/>
@@ -5639,33 +5645,33 @@
       <c r="A60" s="5" t="s">
         <v>555</v>
       </c>
-      <c r="B60" s="10" t="s">
+      <c r="B60" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="C60" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="10" t="s">
+      <c r="F60" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G60" s="10" t="s">
+      <c r="G60" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10" t="s">
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="J60" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K60" s="10"/>
-      <c r="L60" s="11" t="s">
+      <c r="J60" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K60" s="11"/>
+      <c r="L60" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M60" s="5"/>
@@ -5683,33 +5689,33 @@
       <c r="A61" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B61" s="10" t="s">
+      <c r="B61" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="C61" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="E61" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F61" s="10" t="s">
+      <c r="F61" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="G61" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10" t="s">
+      <c r="H61" s="11"/>
+      <c r="I61" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="J61" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K61" s="10"/>
-      <c r="L61" s="11" t="s">
+      <c r="J61" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K61" s="11"/>
+      <c r="L61" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M61" s="5"/>
@@ -5740,7 +5746,7 @@
       <c r="L62" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M62" s="9" t="s">
+      <c r="M62" s="13" t="s">
         <v>373</v>
       </c>
       <c r="N62" s="9" t="s">
@@ -5910,7 +5916,7 @@
       <c r="L66" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M66" s="9" t="s">
+      <c r="M66" s="13" t="s">
         <v>374</v>
       </c>
       <c r="N66" s="9" t="s">
@@ -6130,7 +6136,7 @@
         <v>348</v>
       </c>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -6338,7 +6344,7 @@
       </c>
       <c r="K75" s="2"/>
       <c r="L75" s="4"/>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N75" s="2" t="s">
@@ -6538,7 +6544,7 @@
       <c r="L79" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M79" s="9" t="s">
+      <c r="M79" s="13" t="s">
         <v>375</v>
       </c>
       <c r="N79" s="9" t="s">
@@ -6698,7 +6704,7 @@
       <c r="L83" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M83" s="9" t="s">
+      <c r="M83" s="13" t="s">
         <v>376</v>
       </c>
       <c r="N83" s="9" t="s">
@@ -6986,7 +6992,7 @@
       <c r="L90" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M90" s="9" t="s">
+      <c r="M90" s="13" t="s">
         <v>377</v>
       </c>
       <c r="N90" s="9" t="s">
@@ -7156,7 +7162,7 @@
       <c r="L94" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M94" s="9" t="s">
+      <c r="M94" s="13" t="s">
         <v>378</v>
       </c>
       <c r="N94" s="9" t="s">
@@ -7266,21 +7272,21 @@
       <c r="V96" s="9"/>
     </row>
     <row r="97" spans="1:22">
-      <c r="A97" s="5" t="s">
+      <c r="A97" s="2" t="s">
         <v>590</v>
       </c>
-      <c r="B97" s="5" t="s">
+      <c r="B97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C97" s="5" t="s">
+      <c r="C97" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
       <c r="J97" s="6" t="s">
         <v>323</v>
       </c>
@@ -7290,18 +7296,18 @@
       <c r="L97" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M97" s="5" t="s">
+      <c r="M97" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N97" s="5" t="s">
+      <c r="N97" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
+      <c r="O97" s="2"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2"/>
+      <c r="R97" s="2"/>
+      <c r="S97" s="2"/>
+      <c r="T97" s="2"/>
       <c r="U97" s="6" t="s">
         <v>316</v>
       </c>
@@ -7422,24 +7428,24 @@
       <c r="B100" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C100" s="10" t="s">
+      <c r="C100" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D100" s="10" t="s">
+      <c r="D100" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10" t="s">
+      <c r="E100" s="11"/>
+      <c r="F100" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G100" s="10"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="10" t="s">
+      <c r="G100" s="11"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11"/>
+      <c r="J100" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K100" s="10"/>
-      <c r="L100" s="11" t="s">
+      <c r="K100" s="11"/>
+      <c r="L100" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M100" s="5"/>
@@ -7457,33 +7463,33 @@
       <c r="A101" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="B101" s="10" t="s">
+      <c r="B101" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C101" s="10" t="s">
+      <c r="C101" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D101" s="10" t="s">
+      <c r="D101" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E101" s="10" t="s">
+      <c r="E101" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F101" s="10" t="s">
+      <c r="F101" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G101" s="10" t="s">
+      <c r="G101" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H101" s="10"/>
-      <c r="I101" s="10" t="s">
+      <c r="H101" s="11"/>
+      <c r="I101" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J101" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K101" s="10"/>
-      <c r="L101" s="11" t="s">
+      <c r="J101" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K101" s="11"/>
+      <c r="L101" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M101" s="5"/>
@@ -7501,33 +7507,33 @@
       <c r="A102" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="B102" s="10" t="s">
+      <c r="B102" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C102" s="10" t="s">
+      <c r="C102" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D102" s="10" t="s">
+      <c r="D102" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E102" s="10" t="s">
+      <c r="E102" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F102" s="10" t="s">
+      <c r="F102" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="G102" s="10"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="10" t="s">
+      <c r="G102" s="11"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="J102" s="10" t="s">
+      <c r="J102" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K102" s="10" t="s">
+      <c r="K102" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="L102" s="11" t="s">
+      <c r="L102" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M102" s="5"/>
@@ -7558,7 +7564,7 @@
       <c r="L103" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M103" s="9" t="s">
+      <c r="M103" s="13" t="s">
         <v>35</v>
       </c>
       <c r="N103" s="9" t="s">
@@ -7628,21 +7634,21 @@
       </c>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>598</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
       <c r="J105" s="6" t="s">
         <v>319</v>
       </c>
@@ -7652,18 +7658,18 @@
       <c r="L105" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M105" s="5" t="s">
+      <c r="M105" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O105" s="5"/>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
       <c r="U105" s="6" t="s">
         <v>477</v>
       </c>
@@ -8019,31 +8025,31 @@
       <c r="A112" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="B112" s="10" t="s">
+      <c r="B112" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C112" s="10" t="s">
+      <c r="C112" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D112" s="10" t="s">
+      <c r="D112" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E112" s="10" t="s">
+      <c r="E112" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F112" s="10"/>
-      <c r="G112" s="10" t="s">
+      <c r="F112" s="11"/>
+      <c r="G112" s="11" t="s">
         <v>194</v>
       </c>
-      <c r="H112" s="10"/>
-      <c r="I112" s="10" t="s">
+      <c r="H112" s="11"/>
+      <c r="I112" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="J112" s="10" t="s">
+      <c r="J112" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="K112" s="10"/>
-      <c r="L112" s="11" t="s">
+      <c r="K112" s="11"/>
+      <c r="L112" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M112" s="5"/>
@@ -8061,33 +8067,33 @@
       <c r="A113" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="B113" s="10" t="s">
+      <c r="B113" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="C113" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="D113" s="10" t="s">
+      <c r="D113" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E113" s="10" t="s">
+      <c r="E113" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F113" s="10"/>
-      <c r="G113" s="10" t="s">
+      <c r="F113" s="11"/>
+      <c r="G113" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="H113" s="10"/>
-      <c r="I113" s="10" t="s">
+      <c r="H113" s="11"/>
+      <c r="I113" s="11" t="s">
         <v>272</v>
       </c>
-      <c r="J113" s="10" t="s">
+      <c r="J113" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="K113" s="10" t="s">
+      <c r="K113" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="L113" s="11" t="s">
+      <c r="L113" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M113" s="5"/>
@@ -8102,21 +8108,21 @@
       <c r="V113" s="5"/>
     </row>
     <row r="114" spans="1:22">
-      <c r="A114" s="5" t="s">
+      <c r="A114" s="2" t="s">
         <v>607</v>
       </c>
-      <c r="B114" s="5" t="s">
+      <c r="B114" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D114" s="5"/>
-      <c r="E114" s="5"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
       <c r="J114" s="6" t="s">
         <v>319</v>
       </c>
@@ -8126,18 +8132,18 @@
       <c r="L114" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M114" s="5" t="s">
+      <c r="M114" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N114" s="5" t="s">
+      <c r="N114" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O114" s="5"/>
-      <c r="P114" s="5"/>
-      <c r="Q114" s="5"/>
-      <c r="R114" s="5"/>
-      <c r="S114" s="5"/>
-      <c r="T114" s="5"/>
+      <c r="O114" s="2"/>
+      <c r="P114" s="2"/>
+      <c r="Q114" s="2"/>
+      <c r="R114" s="2"/>
+      <c r="S114" s="2"/>
+      <c r="T114" s="2"/>
       <c r="U114" s="6" t="s">
         <v>316</v>
       </c>
@@ -8380,20 +8386,20 @@
       <c r="B119" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C119" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10"/>
-      <c r="F119" s="10"/>
-      <c r="G119" s="10"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="10" t="s">
+      <c r="C119" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D119" s="11"/>
+      <c r="E119" s="11"/>
+      <c r="F119" s="11"/>
+      <c r="G119" s="11"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11"/>
+      <c r="J119" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K119" s="10"/>
-      <c r="L119" s="11" t="s">
+      <c r="K119" s="11"/>
+      <c r="L119" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M119" s="5"/>
@@ -8411,27 +8417,27 @@
       <c r="A120" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="B120" s="10" t="s">
+      <c r="B120" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C120" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D120" s="10" t="s">
+      <c r="C120" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D120" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10" t="s">
+      <c r="E120" s="11"/>
+      <c r="F120" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G120" s="10"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="10" t="s">
+      <c r="G120" s="11"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11"/>
+      <c r="J120" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K120" s="10"/>
-      <c r="L120" s="11" t="s">
+      <c r="K120" s="11"/>
+      <c r="L120" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M120" s="5"/>
@@ -8449,33 +8455,33 @@
       <c r="A121" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C121" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D121" s="10" t="s">
+      <c r="C121" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D121" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E121" s="10" t="s">
+      <c r="E121" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F121" s="10" t="s">
+      <c r="F121" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G121" s="10" t="s">
+      <c r="G121" s="11" t="s">
         <v>197</v>
       </c>
-      <c r="H121" s="10"/>
-      <c r="I121" s="10" t="s">
+      <c r="H121" s="11"/>
+      <c r="I121" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="J121" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K121" s="10"/>
-      <c r="L121" s="11" t="s">
+      <c r="J121" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K121" s="11"/>
+      <c r="L121" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M121" s="5"/>
@@ -8493,33 +8499,33 @@
       <c r="A122" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B122" s="10" t="s">
+      <c r="B122" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C122" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D122" s="10" t="s">
+      <c r="C122" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E122" s="10" t="s">
+      <c r="E122" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F122" s="10" t="s">
+      <c r="F122" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="G122" s="10" t="s">
+      <c r="G122" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="H122" s="10"/>
-      <c r="I122" s="10" t="s">
+      <c r="H122" s="11"/>
+      <c r="I122" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="J122" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K122" s="10"/>
-      <c r="L122" s="11" t="s">
+      <c r="J122" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K122" s="11"/>
+      <c r="L122" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M122" s="5"/>
@@ -8537,31 +8543,31 @@
       <c r="A123" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="B123" s="10" t="s">
+      <c r="B123" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C123" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D123" s="10" t="s">
+      <c r="C123" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D123" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E123" s="10" t="s">
+      <c r="E123" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="10" t="s">
+      <c r="F123" s="11"/>
+      <c r="G123" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="H123" s="10"/>
-      <c r="I123" s="10" t="s">
+      <c r="H123" s="11"/>
+      <c r="I123" s="11" t="s">
         <v>276</v>
       </c>
-      <c r="J123" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K123" s="10"/>
-      <c r="L123" s="11" t="s">
+      <c r="J123" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K123" s="11"/>
+      <c r="L123" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M123" s="5"/>
@@ -8592,7 +8598,7 @@
       <c r="L124" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M124" s="9" t="s">
+      <c r="M124" s="13" t="s">
         <v>379</v>
       </c>
       <c r="N124" s="9" t="s">
@@ -8710,7 +8716,7 @@
       <c r="L127" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M127" s="9" t="s">
+      <c r="M127" s="13" t="s">
         <v>380</v>
       </c>
       <c r="N127" s="9" t="s">
@@ -8818,21 +8824,21 @@
       <c r="V129" s="9"/>
     </row>
     <row r="130" spans="1:22">
-      <c r="A130" s="5" t="s">
+      <c r="A130" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="B130" s="5" t="s">
+      <c r="B130" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D130" s="5"/>
-      <c r="E130" s="5"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="5"/>
-      <c r="H130" s="5"/>
-      <c r="I130" s="5"/>
+      <c r="C130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
       <c r="J130" s="6" t="s">
         <v>330</v>
       </c>
@@ -8842,18 +8848,18 @@
       <c r="L130" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M130" s="5" t="s">
+      <c r="M130" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N130" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O130" s="5"/>
-      <c r="P130" s="5"/>
-      <c r="Q130" s="5"/>
-      <c r="R130" s="5"/>
-      <c r="S130" s="5"/>
-      <c r="T130" s="5"/>
+      <c r="N130" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+      <c r="R130" s="2"/>
+      <c r="S130" s="2"/>
+      <c r="T130" s="2"/>
       <c r="U130" s="6" t="s">
         <v>478</v>
       </c>
@@ -9042,7 +9048,7 @@
       <c r="L134" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M134" s="9" t="s">
+      <c r="M134" s="13" t="s">
         <v>381</v>
       </c>
       <c r="N134" s="9" t="s">
@@ -9186,21 +9192,21 @@
       <c r="V137" s="9"/>
     </row>
     <row r="138" spans="1:22">
-      <c r="A138" s="5" t="s">
+      <c r="A138" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B138" s="5" t="s">
+      <c r="B138" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D138" s="5"/>
-      <c r="E138" s="5"/>
-      <c r="F138" s="5"/>
-      <c r="G138" s="5"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="5"/>
+      <c r="C138" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" s="2"/>
+      <c r="E138" s="2"/>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+      <c r="H138" s="2"/>
+      <c r="I138" s="2"/>
       <c r="J138" s="6" t="s">
         <v>331</v>
       </c>
@@ -9210,18 +9216,18 @@
       <c r="L138" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M138" s="5" t="s">
+      <c r="M138" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N138" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O138" s="5"/>
-      <c r="P138" s="5"/>
-      <c r="Q138" s="5"/>
-      <c r="R138" s="5"/>
-      <c r="S138" s="5"/>
-      <c r="T138" s="5"/>
+      <c r="N138" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O138" s="2"/>
+      <c r="P138" s="2"/>
+      <c r="Q138" s="2"/>
+      <c r="R138" s="2"/>
+      <c r="S138" s="2"/>
+      <c r="T138" s="2"/>
       <c r="U138" s="6" t="s">
         <v>316</v>
       </c>
@@ -9394,21 +9400,21 @@
       <c r="V141" s="5"/>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D142" s="5"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
+      <c r="C142" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
       <c r="J142" s="6" t="s">
         <v>331</v>
       </c>
@@ -9418,18 +9424,18 @@
       <c r="L142" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M142" s="5" t="s">
+      <c r="M142" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N142" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O142" s="5"/>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
+      <c r="N142" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O142" s="2"/>
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
       <c r="U142" s="6" t="s">
         <v>479</v>
       </c>
@@ -9716,22 +9722,22 @@
       <c r="B148" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C148" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D148" s="10"/>
-      <c r="E148" s="10"/>
-      <c r="F148" s="10"/>
-      <c r="G148" s="10"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="10" t="s">
+      <c r="C148" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="11"/>
+      <c r="E148" s="11"/>
+      <c r="F148" s="11"/>
+      <c r="G148" s="11"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11"/>
+      <c r="J148" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="K148" s="10" t="s">
+      <c r="K148" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="L148" s="11" t="s">
+      <c r="L148" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M148" s="5"/>
@@ -9749,27 +9755,27 @@
       <c r="A149" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="B149" s="10" t="s">
+      <c r="B149" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C149" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D149" s="10" t="s">
+      <c r="C149" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E149" s="10"/>
-      <c r="F149" s="10" t="s">
+      <c r="E149" s="11"/>
+      <c r="F149" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G149" s="10"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="10" t="s">
+      <c r="G149" s="11"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11"/>
+      <c r="J149" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K149" s="10"/>
-      <c r="L149" s="11" t="s">
+      <c r="K149" s="11"/>
+      <c r="L149" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M149" s="5"/>
@@ -9787,33 +9793,33 @@
       <c r="A150" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="B150" s="10" t="s">
+      <c r="B150" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C150" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D150" s="10" t="s">
+      <c r="C150" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E150" s="10" t="s">
+      <c r="E150" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F150" s="10" t="s">
+      <c r="F150" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G150" s="10" t="s">
+      <c r="G150" s="11" t="s">
         <v>203</v>
       </c>
-      <c r="H150" s="10"/>
-      <c r="I150" s="10" t="s">
+      <c r="H150" s="11"/>
+      <c r="I150" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="J150" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K150" s="10"/>
-      <c r="L150" s="11" t="s">
+      <c r="J150" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K150" s="11"/>
+      <c r="L150" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M150" s="5"/>
@@ -9831,27 +9837,27 @@
       <c r="A151" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="B151" s="10" t="s">
+      <c r="B151" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C151" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D151" s="10" t="s">
+      <c r="C151" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E151" s="10"/>
-      <c r="F151" s="10" t="s">
+      <c r="E151" s="11"/>
+      <c r="F151" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G151" s="10"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="10" t="s">
+      <c r="G151" s="11"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11"/>
+      <c r="J151" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K151" s="10"/>
-      <c r="L151" s="11" t="s">
+      <c r="K151" s="11"/>
+      <c r="L151" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M151" s="5"/>
@@ -9869,33 +9875,33 @@
       <c r="A152" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B152" s="10" t="s">
+      <c r="B152" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C152" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D152" s="10" t="s">
+      <c r="C152" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E152" s="10" t="s">
+      <c r="E152" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F152" s="10" t="s">
+      <c r="F152" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G152" s="10" t="s">
+      <c r="G152" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="H152" s="10"/>
-      <c r="I152" s="10" t="s">
+      <c r="H152" s="11"/>
+      <c r="I152" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="J152" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K152" s="10"/>
-      <c r="L152" s="11" t="s">
+      <c r="J152" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K152" s="11"/>
+      <c r="L152" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M152" s="5"/>
@@ -9913,31 +9919,31 @@
       <c r="A153" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="B153" s="10" t="s">
+      <c r="B153" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C153" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D153" s="10" t="s">
+      <c r="C153" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E153" s="10" t="s">
+      <c r="E153" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F153" s="10"/>
-      <c r="G153" s="10" t="s">
+      <c r="F153" s="11"/>
+      <c r="G153" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H153" s="10"/>
-      <c r="I153" s="10" t="s">
+      <c r="H153" s="11"/>
+      <c r="I153" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="J153" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K153" s="10"/>
-      <c r="L153" s="11" t="s">
+      <c r="J153" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K153" s="11"/>
+      <c r="L153" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M153" s="5"/>
@@ -9955,33 +9961,33 @@
       <c r="A154" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="B154" s="10" t="s">
+      <c r="B154" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C154" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D154" s="10" t="s">
+      <c r="C154" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E154" s="10" t="s">
+      <c r="E154" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F154" s="10"/>
-      <c r="G154" s="10" t="s">
+      <c r="F154" s="11"/>
+      <c r="G154" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H154" s="10"/>
-      <c r="I154" s="10" t="s">
+      <c r="H154" s="11"/>
+      <c r="I154" s="11" t="s">
         <v>282</v>
       </c>
-      <c r="J154" s="10" t="s">
+      <c r="J154" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="K154" s="10" t="s">
+      <c r="K154" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="L154" s="11" t="s">
+      <c r="L154" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M154" s="5"/>
@@ -10002,20 +10008,20 @@
       <c r="B155" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="C155" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D155" s="10"/>
-      <c r="E155" s="10"/>
-      <c r="F155" s="10"/>
-      <c r="G155" s="10"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="10" t="s">
+      <c r="C155" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" s="11"/>
+      <c r="E155" s="11"/>
+      <c r="F155" s="11"/>
+      <c r="G155" s="11"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11"/>
+      <c r="J155" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="K155" s="10"/>
-      <c r="L155" s="11" t="s">
+      <c r="K155" s="11"/>
+      <c r="L155" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M155" s="5"/>
@@ -10033,27 +10039,27 @@
       <c r="A156" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="B156" s="10" t="s">
+      <c r="B156" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C156" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D156" s="10" t="s">
+      <c r="C156" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E156" s="10"/>
-      <c r="F156" s="10" t="s">
+      <c r="E156" s="11"/>
+      <c r="F156" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G156" s="10"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="10" t="s">
+      <c r="G156" s="11"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K156" s="10"/>
-      <c r="L156" s="11" t="s">
+      <c r="K156" s="11"/>
+      <c r="L156" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M156" s="5"/>
@@ -10071,33 +10077,33 @@
       <c r="A157" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="B157" s="10" t="s">
+      <c r="B157" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C157" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D157" s="10" t="s">
+      <c r="C157" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E157" s="10" t="s">
+      <c r="E157" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F157" s="10" t="s">
+      <c r="F157" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G157" s="10" t="s">
+      <c r="G157" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H157" s="10"/>
-      <c r="I157" s="10" t="s">
+      <c r="H157" s="11"/>
+      <c r="I157" s="11" t="s">
         <v>283</v>
       </c>
-      <c r="J157" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K157" s="10"/>
-      <c r="L157" s="11" t="s">
+      <c r="J157" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K157" s="11"/>
+      <c r="L157" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M157" s="5"/>
@@ -10115,33 +10121,33 @@
       <c r="A158" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="B158" s="10" t="s">
+      <c r="B158" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C158" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D158" s="10" t="s">
+      <c r="C158" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E158" s="10" t="s">
+      <c r="E158" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F158" s="10" t="s">
+      <c r="F158" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="G158" s="10" t="s">
+      <c r="G158" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H158" s="10"/>
-      <c r="I158" s="10" t="s">
+      <c r="H158" s="11"/>
+      <c r="I158" s="11" t="s">
         <v>284</v>
       </c>
-      <c r="J158" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K158" s="10"/>
-      <c r="L158" s="11" t="s">
+      <c r="J158" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K158" s="11"/>
+      <c r="L158" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M158" s="5"/>
@@ -10159,31 +10165,31 @@
       <c r="A159" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="B159" s="10" t="s">
+      <c r="B159" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C159" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D159" s="10" t="s">
+      <c r="C159" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E159" s="10" t="s">
+      <c r="E159" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F159" s="10"/>
-      <c r="G159" s="10" t="s">
+      <c r="F159" s="11"/>
+      <c r="G159" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="H159" s="10"/>
-      <c r="I159" s="10" t="s">
+      <c r="H159" s="11"/>
+      <c r="I159" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="J159" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K159" s="10"/>
-      <c r="L159" s="11" t="s">
+      <c r="J159" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K159" s="11"/>
+      <c r="L159" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M159" s="5"/>
@@ -10214,7 +10220,7 @@
       <c r="L160" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M160" s="9" t="s">
+      <c r="M160" s="13" t="s">
         <v>382</v>
       </c>
       <c r="N160" s="9" t="s">
@@ -10402,21 +10408,21 @@
       <c r="V164" s="9"/>
     </row>
     <row r="165" spans="1:22">
-      <c r="A165" s="5" t="s">
+      <c r="A165" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="B165" s="5" t="s">
+      <c r="B165" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D165" s="5"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
-      <c r="G165" s="5"/>
-      <c r="H165" s="5"/>
-      <c r="I165" s="5"/>
+      <c r="C165" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D165" s="2"/>
+      <c r="E165" s="2"/>
+      <c r="F165" s="2"/>
+      <c r="G165" s="2"/>
+      <c r="H165" s="2"/>
+      <c r="I165" s="2"/>
       <c r="J165" s="6" t="s">
         <v>319</v>
       </c>
@@ -10424,18 +10430,18 @@
       <c r="L165" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M165" s="5" t="s">
+      <c r="M165" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="N165" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O165" s="5"/>
-      <c r="P165" s="5"/>
-      <c r="Q165" s="5"/>
-      <c r="R165" s="5"/>
-      <c r="S165" s="5"/>
-      <c r="T165" s="5"/>
+      <c r="N165" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O165" s="2"/>
+      <c r="P165" s="2"/>
+      <c r="Q165" s="2"/>
+      <c r="R165" s="2"/>
+      <c r="S165" s="2"/>
+      <c r="T165" s="2"/>
       <c r="U165" s="6" t="s">
         <v>316</v>
       </c>
@@ -10606,26 +10612,26 @@
       <c r="V168" s="5"/>
     </row>
     <row r="169" spans="1:22">
-      <c r="A169" s="5" t="s">
+      <c r="A169" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B169" s="5" t="s">
+      <c r="B169" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C169" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D169" s="5" t="s">
+      <c r="C169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D169" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E169" s="5"/>
+      <c r="E169" s="2"/>
       <c r="F169" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5" t="s">
+      <c r="G169" s="2"/>
+      <c r="H169" s="2"/>
+      <c r="I169" s="2"/>
+      <c r="J169" s="2" t="s">
         <v>333</v>
       </c>
       <c r="K169" s="6" t="s">
@@ -10634,23 +10640,23 @@
       <c r="L169" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M169" s="5" t="s">
+      <c r="M169" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="N169" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O169" s="5" t="s">
+      <c r="N169" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O169" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P169" s="5"/>
+      <c r="P169" s="2"/>
       <c r="Q169" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="R169" s="5"/>
-      <c r="S169" s="5"/>
-      <c r="T169" s="5"/>
-      <c r="U169" s="5" t="s">
+      <c r="R169" s="2"/>
+      <c r="S169" s="2"/>
+      <c r="T169" s="2"/>
+      <c r="U169" s="2" t="s">
         <v>333</v>
       </c>
       <c r="V169" s="6" t="s">
@@ -10775,31 +10781,31 @@
       <c r="A172" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="B172" s="10" t="s">
+      <c r="B172" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C172" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D172" s="10" t="s">
+      <c r="C172" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D172" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E172" s="10" t="s">
+      <c r="E172" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F172" s="10"/>
-      <c r="G172" s="10" t="s">
+      <c r="F172" s="11"/>
+      <c r="G172" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H172" s="10"/>
-      <c r="I172" s="10" t="s">
+      <c r="H172" s="11"/>
+      <c r="I172" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="J172" s="10" t="s">
+      <c r="J172" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="K172" s="10"/>
-      <c r="L172" s="11" t="s">
+      <c r="K172" s="11"/>
+      <c r="L172" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M172" s="5"/>
@@ -10820,22 +10826,22 @@
       <c r="B173" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C173" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D173" s="10"/>
-      <c r="E173" s="10"/>
-      <c r="F173" s="10"/>
-      <c r="G173" s="10"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="10" t="s">
+      <c r="C173" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D173" s="11"/>
+      <c r="E173" s="11"/>
+      <c r="F173" s="11"/>
+      <c r="G173" s="11"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11"/>
+      <c r="J173" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="K173" s="10" t="s">
+      <c r="K173" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="L173" s="11" t="s">
+      <c r="L173" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M173" s="5"/>
@@ -10853,27 +10859,27 @@
       <c r="A174" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="B174" s="10" t="s">
+      <c r="B174" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C174" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D174" s="10" t="s">
+      <c r="C174" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D174" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10" t="s">
+      <c r="E174" s="11"/>
+      <c r="F174" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10" t="s">
+      <c r="G174" s="11"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11"/>
+      <c r="J174" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K174" s="10"/>
-      <c r="L174" s="11" t="s">
+      <c r="K174" s="11"/>
+      <c r="L174" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M174" s="5"/>
@@ -10891,33 +10897,33 @@
       <c r="A175" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="B175" s="10" t="s">
+      <c r="B175" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C175" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D175" s="10" t="s">
+      <c r="C175" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D175" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E175" s="10" t="s">
+      <c r="E175" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F175" s="10" t="s">
+      <c r="F175" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G175" s="10" t="s">
+      <c r="G175" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H175" s="10"/>
-      <c r="I175" s="10" t="s">
+      <c r="H175" s="11"/>
+      <c r="I175" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="J175" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K175" s="10"/>
-      <c r="L175" s="11" t="s">
+      <c r="J175" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K175" s="11"/>
+      <c r="L175" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M175" s="5"/>
@@ -10935,27 +10941,27 @@
       <c r="A176" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="B176" s="10" t="s">
+      <c r="B176" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C176" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D176" s="10" t="s">
+      <c r="C176" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D176" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E176" s="10"/>
-      <c r="F176" s="10" t="s">
+      <c r="E176" s="11"/>
+      <c r="F176" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G176" s="10"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="10" t="s">
+      <c r="G176" s="11"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11"/>
+      <c r="J176" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K176" s="10"/>
-      <c r="L176" s="11" t="s">
+      <c r="K176" s="11"/>
+      <c r="L176" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M176" s="5"/>
@@ -10973,33 +10979,33 @@
       <c r="A177" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="B177" s="10" t="s">
+      <c r="B177" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C177" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D177" s="10" t="s">
+      <c r="C177" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D177" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E177" s="10" t="s">
+      <c r="E177" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F177" s="10" t="s">
+      <c r="F177" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="G177" s="10" t="s">
+      <c r="G177" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H177" s="10"/>
-      <c r="I177" s="10" t="s">
+      <c r="H177" s="11"/>
+      <c r="I177" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="J177" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K177" s="10"/>
-      <c r="L177" s="11" t="s">
+      <c r="J177" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K177" s="11"/>
+      <c r="L177" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M177" s="5"/>
@@ -11017,31 +11023,31 @@
       <c r="A178" s="5" t="s">
         <v>669</v>
       </c>
-      <c r="B178" s="10" t="s">
+      <c r="B178" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="C178" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D178" s="10" t="s">
+      <c r="C178" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D178" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E178" s="10" t="s">
+      <c r="E178" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F178" s="10"/>
-      <c r="G178" s="10" t="s">
+      <c r="F178" s="11"/>
+      <c r="G178" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="H178" s="10"/>
-      <c r="I178" s="10" t="s">
+      <c r="H178" s="11"/>
+      <c r="I178" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="J178" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K178" s="10"/>
-      <c r="L178" s="11" t="s">
+      <c r="J178" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K178" s="11"/>
+      <c r="L178" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M178" s="5"/>
@@ -11062,26 +11068,26 @@
       <c r="B179" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="C179" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D179" s="10" t="s">
+      <c r="C179" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D179" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E179" s="10"/>
-      <c r="F179" s="10" t="s">
+      <c r="E179" s="11"/>
+      <c r="F179" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G179" s="10"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="10" t="s">
+      <c r="G179" s="11"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11"/>
+      <c r="J179" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="K179" s="10" t="s">
+      <c r="K179" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="L179" s="11" t="s">
+      <c r="L179" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M179" s="5"/>
@@ -11099,33 +11105,33 @@
       <c r="A180" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="B180" s="10" t="s">
+      <c r="B180" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C180" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D180" s="10" t="s">
+      <c r="C180" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D180" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E180" s="10" t="s">
+      <c r="E180" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F180" s="10" t="s">
+      <c r="F180" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="G180" s="10" t="s">
+      <c r="G180" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H180" s="10"/>
-      <c r="I180" s="10" t="s">
+      <c r="H180" s="11"/>
+      <c r="I180" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="J180" s="10" t="s">
+      <c r="J180" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K180" s="10"/>
-      <c r="L180" s="11" t="s">
+      <c r="K180" s="11"/>
+      <c r="L180" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M180" s="5"/>
@@ -11143,31 +11149,31 @@
       <c r="A181" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="B181" s="10" t="s">
+      <c r="B181" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C181" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D181" s="10" t="s">
+      <c r="C181" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D181" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E181" s="10" t="s">
+      <c r="E181" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F181" s="10"/>
-      <c r="G181" s="10" t="s">
+      <c r="F181" s="11"/>
+      <c r="G181" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="H181" s="10"/>
-      <c r="I181" s="10" t="s">
+      <c r="H181" s="11"/>
+      <c r="I181" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J181" s="10" t="s">
+      <c r="J181" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K181" s="10"/>
-      <c r="L181" s="11" t="s">
+      <c r="K181" s="11"/>
+      <c r="L181" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M181" s="5"/>
@@ -11185,31 +11191,31 @@
       <c r="A182" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="B182" s="10" t="s">
+      <c r="B182" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C182" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D182" s="10" t="s">
+      <c r="C182" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D182" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E182" s="10" t="s">
+      <c r="E182" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F182" s="10"/>
-      <c r="G182" s="10" t="s">
+      <c r="F182" s="11"/>
+      <c r="G182" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="H182" s="10"/>
-      <c r="I182" s="10" t="s">
+      <c r="H182" s="11"/>
+      <c r="I182" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="J182" s="10" t="s">
+      <c r="J182" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K182" s="10"/>
-      <c r="L182" s="11" t="s">
+      <c r="K182" s="11"/>
+      <c r="L182" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M182" s="5"/>
@@ -11227,31 +11233,31 @@
       <c r="A183" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="B183" s="10" t="s">
+      <c r="B183" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="C183" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D183" s="10" t="s">
+      <c r="C183" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D183" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E183" s="10" t="s">
+      <c r="E183" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F183" s="10"/>
-      <c r="G183" s="10" t="s">
+      <c r="F183" s="11"/>
+      <c r="G183" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="H183" s="10"/>
-      <c r="I183" s="10" t="s">
+      <c r="H183" s="11"/>
+      <c r="I183" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="J183" s="10" t="s">
+      <c r="J183" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="K183" s="10"/>
-      <c r="L183" s="11" t="s">
+      <c r="K183" s="11"/>
+      <c r="L183" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M183" s="5"/>
@@ -11272,22 +11278,22 @@
       <c r="B184" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C184" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D184" s="10"/>
-      <c r="E184" s="10"/>
-      <c r="F184" s="10"/>
-      <c r="G184" s="10"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="10" t="s">
+      <c r="C184" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D184" s="11"/>
+      <c r="E184" s="11"/>
+      <c r="F184" s="11"/>
+      <c r="G184" s="11"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11"/>
+      <c r="J184" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K184" s="10" t="s">
+      <c r="K184" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="L184" s="11" t="s">
+      <c r="L184" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M184" s="5"/>
@@ -11305,27 +11311,27 @@
       <c r="A185" s="5" t="s">
         <v>676</v>
       </c>
-      <c r="B185" s="10" t="s">
+      <c r="B185" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C185" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D185" s="10" t="s">
+      <c r="C185" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D185" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E185" s="10"/>
-      <c r="F185" s="10" t="s">
+      <c r="E185" s="11"/>
+      <c r="F185" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G185" s="10"/>
-      <c r="H185" s="10"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="10" t="s">
+      <c r="G185" s="11"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11"/>
+      <c r="J185" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K185" s="10"/>
-      <c r="L185" s="11" t="s">
+      <c r="K185" s="11"/>
+      <c r="L185" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M185" s="5"/>
@@ -11343,33 +11349,33 @@
       <c r="A186" s="5" t="s">
         <v>677</v>
       </c>
-      <c r="B186" s="10" t="s">
+      <c r="B186" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C186" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D186" s="10" t="s">
+      <c r="C186" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D186" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E186" s="10" t="s">
+      <c r="E186" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F186" s="10" t="s">
+      <c r="F186" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G186" s="10" t="s">
+      <c r="G186" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="H186" s="10"/>
-      <c r="I186" s="10" t="s">
+      <c r="H186" s="11"/>
+      <c r="I186" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J186" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K186" s="10"/>
-      <c r="L186" s="11" t="s">
+      <c r="J186" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K186" s="11"/>
+      <c r="L186" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M186" s="5"/>
@@ -11387,33 +11393,33 @@
       <c r="A187" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="B187" s="10" t="s">
+      <c r="B187" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C187" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D187" s="10" t="s">
+      <c r="C187" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D187" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E187" s="10" t="s">
+      <c r="E187" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F187" s="10" t="s">
+      <c r="F187" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="G187" s="10" t="s">
+      <c r="G187" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="H187" s="10"/>
-      <c r="I187" s="10" t="s">
+      <c r="H187" s="11"/>
+      <c r="I187" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="J187" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K187" s="10"/>
-      <c r="L187" s="11" t="s">
+      <c r="J187" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K187" s="11"/>
+      <c r="L187" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M187" s="5"/>
@@ -11431,31 +11437,31 @@
       <c r="A188" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="B188" s="10" t="s">
+      <c r="B188" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="C188" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D188" s="10" t="s">
+      <c r="C188" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D188" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E188" s="10" t="s">
+      <c r="E188" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F188" s="10"/>
-      <c r="G188" s="10" t="s">
+      <c r="F188" s="11"/>
+      <c r="G188" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="H188" s="10"/>
-      <c r="I188" s="10" t="s">
+      <c r="H188" s="11"/>
+      <c r="I188" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="J188" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K188" s="10"/>
-      <c r="L188" s="11" t="s">
+      <c r="J188" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K188" s="11"/>
+      <c r="L188" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M188" s="5"/>
@@ -11470,21 +11476,21 @@
       <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D189" s="5"/>
-      <c r="E189" s="5"/>
-      <c r="F189" s="5"/>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
+      <c r="D189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2"/>
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
       <c r="J189" s="6" t="s">
         <v>339</v>
       </c>
@@ -11494,18 +11500,18 @@
       <c r="L189" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M189" s="5" t="s">
+      <c r="M189" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="O189" s="5"/>
-      <c r="P189" s="5"/>
-      <c r="Q189" s="5"/>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
+      <c r="O189" s="2"/>
+      <c r="P189" s="2"/>
+      <c r="Q189" s="2"/>
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
       <c r="U189" s="6" t="s">
         <v>480</v>
       </c>
@@ -11626,24 +11632,24 @@
       <c r="B192" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C192" s="10" t="s">
+      <c r="C192" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D192" s="10" t="s">
+      <c r="D192" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E192" s="10"/>
-      <c r="F192" s="10" t="s">
+      <c r="E192" s="11"/>
+      <c r="F192" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G192" s="10"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="10" t="s">
+      <c r="G192" s="11"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+      <c r="J192" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K192" s="10"/>
-      <c r="L192" s="11" t="s">
+      <c r="K192" s="11"/>
+      <c r="L192" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M192" s="5"/>
@@ -11661,33 +11667,33 @@
       <c r="A193" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="B193" s="10" t="s">
+      <c r="B193" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C193" s="10" t="s">
+      <c r="C193" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D193" s="10" t="s">
+      <c r="D193" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E193" s="10" t="s">
+      <c r="E193" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F193" s="10" t="s">
+      <c r="F193" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G193" s="10" t="s">
+      <c r="G193" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H193" s="10"/>
-      <c r="I193" s="10" t="s">
+      <c r="H193" s="11"/>
+      <c r="I193" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J193" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K193" s="10"/>
-      <c r="L193" s="11" t="s">
+      <c r="J193" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K193" s="11"/>
+      <c r="L193" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M193" s="5"/>
@@ -11705,33 +11711,33 @@
       <c r="A194" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B194" s="10" t="s">
+      <c r="B194" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C194" s="10" t="s">
+      <c r="C194" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D194" s="10" t="s">
+      <c r="D194" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E194" s="10" t="s">
+      <c r="E194" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F194" s="10" t="s">
+      <c r="F194" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="G194" s="10"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="10" t="s">
+      <c r="G194" s="11"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J194" s="10" t="s">
+      <c r="J194" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K194" s="10" t="s">
+      <c r="K194" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="L194" s="11" t="s">
+      <c r="L194" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M194" s="5"/>
@@ -11762,7 +11768,7 @@
       <c r="L195" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M195" s="9" t="s">
+      <c r="M195" s="13" t="s">
         <v>50</v>
       </c>
       <c r="N195" s="9" t="s">
@@ -11852,7 +11858,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N197" s="2" t="s">
@@ -12220,7 +12226,7 @@
       <c r="L204" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M204" s="9" t="s">
+      <c r="M204" s="13" t="s">
         <v>52</v>
       </c>
       <c r="N204" s="9" t="s">
@@ -12422,7 +12428,7 @@
       <c r="L209" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M209" s="9" t="s">
+      <c r="M209" s="13" t="s">
         <v>53</v>
       </c>
       <c r="N209" s="9" t="s">
@@ -12602,13 +12608,13 @@
       <c r="V213" s="9"/>
     </row>
     <row r="214" spans="1:22">
-      <c r="A214" s="5" t="s">
+      <c r="A214" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="B214" s="5" t="s">
+      <c r="B214" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C214" s="5" t="s">
+      <c r="C214" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D214" s="6" t="s">
@@ -12620,34 +12626,34 @@
       <c r="F214" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G214" s="5"/>
-      <c r="H214" s="5"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="2"/>
       <c r="I214" s="6" t="s">
         <v>305</v>
       </c>
       <c r="J214" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="K214" s="5"/>
+      <c r="K214" s="2"/>
       <c r="L214" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M214" s="5" t="s">
+      <c r="M214" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N214" s="5" t="s">
+      <c r="N214" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O214" s="6"/>
       <c r="P214" s="6"/>
       <c r="Q214" s="6"/>
-      <c r="R214" s="5"/>
-      <c r="S214" s="5"/>
+      <c r="R214" s="2"/>
+      <c r="S214" s="2"/>
       <c r="T214" s="6"/>
       <c r="U214" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="V214" s="5"/>
+      <c r="V214" s="2"/>
     </row>
     <row r="215" spans="1:22">
       <c r="A215" s="5" t="s">
@@ -12656,22 +12662,22 @@
       <c r="B215" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C215" s="10" t="s">
+      <c r="C215" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="10"/>
-      <c r="J215" s="10" t="s">
+      <c r="D215" s="11"/>
+      <c r="E215" s="11"/>
+      <c r="F215" s="11"/>
+      <c r="G215" s="11"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11"/>
+      <c r="J215" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="K215" s="10" t="s">
+      <c r="K215" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="L215" s="11" t="s">
+      <c r="L215" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M215" s="5"/>
@@ -12689,27 +12695,27 @@
       <c r="A216" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="B216" s="10" t="s">
+      <c r="B216" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C216" s="10" t="s">
+      <c r="C216" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D216" s="10" t="s">
+      <c r="D216" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10" t="s">
+      <c r="E216" s="11"/>
+      <c r="F216" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G216" s="10"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="10"/>
-      <c r="J216" s="10" t="s">
+      <c r="G216" s="11"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11"/>
+      <c r="J216" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K216" s="10"/>
-      <c r="L216" s="11" t="s">
+      <c r="K216" s="11"/>
+      <c r="L216" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M216" s="5"/>
@@ -12727,33 +12733,33 @@
       <c r="A217" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="B217" s="10" t="s">
+      <c r="B217" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="C217" s="10" t="s">
+      <c r="C217" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D217" s="10" t="s">
+      <c r="D217" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E217" s="10" t="s">
+      <c r="E217" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F217" s="10" t="s">
+      <c r="F217" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="G217" s="10" t="s">
+      <c r="G217" s="11" t="s">
         <v>193</v>
       </c>
-      <c r="H217" s="10"/>
-      <c r="I217" s="10" t="s">
+      <c r="H217" s="11"/>
+      <c r="I217" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="J217" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K217" s="10"/>
-      <c r="L217" s="11" t="s">
+      <c r="J217" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K217" s="11"/>
+      <c r="L217" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M217" s="5"/>
@@ -12774,24 +12780,24 @@
       <c r="B218" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C218" s="10" t="s">
+      <c r="C218" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D218" s="10" t="s">
+      <c r="D218" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10" t="s">
+      <c r="E218" s="11"/>
+      <c r="F218" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G218" s="10"/>
-      <c r="H218" s="10"/>
-      <c r="I218" s="10"/>
-      <c r="J218" s="10" t="s">
+      <c r="G218" s="11"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+      <c r="J218" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K218" s="10"/>
-      <c r="L218" s="11" t="s">
+      <c r="K218" s="11"/>
+      <c r="L218" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M218" s="5"/>
@@ -12809,33 +12815,33 @@
       <c r="A219" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="B219" s="10" t="s">
+      <c r="B219" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C219" s="10" t="s">
+      <c r="C219" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D219" s="10" t="s">
+      <c r="D219" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E219" s="10" t="s">
+      <c r="E219" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F219" s="10" t="s">
+      <c r="F219" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G219" s="10" t="s">
+      <c r="G219" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H219" s="10"/>
-      <c r="I219" s="10" t="s">
+      <c r="H219" s="11"/>
+      <c r="I219" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J219" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K219" s="10"/>
-      <c r="L219" s="11" t="s">
+      <c r="J219" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K219" s="11"/>
+      <c r="L219" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M219" s="5"/>
@@ -12853,33 +12859,33 @@
       <c r="A220" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="B220" s="10" t="s">
+      <c r="B220" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C220" s="10" t="s">
+      <c r="C220" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D220" s="10" t="s">
+      <c r="D220" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E220" s="10" t="s">
+      <c r="E220" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F220" s="10" t="s">
+      <c r="F220" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="G220" s="10"/>
-      <c r="H220" s="10"/>
-      <c r="I220" s="10" t="s">
+      <c r="G220" s="11"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J220" s="10" t="s">
+      <c r="J220" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K220" s="10" t="s">
+      <c r="K220" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="L220" s="11" t="s">
+      <c r="L220" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M220" s="5"/>
@@ -12900,20 +12906,20 @@
       <c r="B221" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C221" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="10"/>
-      <c r="I221" s="10"/>
-      <c r="J221" s="10" t="s">
+      <c r="C221" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D221" s="11"/>
+      <c r="E221" s="11"/>
+      <c r="F221" s="11"/>
+      <c r="G221" s="11"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11"/>
+      <c r="J221" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K221" s="10"/>
-      <c r="L221" s="11" t="s">
+      <c r="K221" s="11"/>
+      <c r="L221" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M221" s="5"/>
@@ -12931,27 +12937,27 @@
       <c r="A222" s="5" t="s">
         <v>713</v>
       </c>
-      <c r="B222" s="10" t="s">
+      <c r="B222" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C222" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D222" s="10" t="s">
+      <c r="C222" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D222" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10" t="s">
+      <c r="E222" s="11"/>
+      <c r="F222" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G222" s="10"/>
-      <c r="H222" s="10"/>
-      <c r="I222" s="10"/>
-      <c r="J222" s="10" t="s">
+      <c r="G222" s="11"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11"/>
+      <c r="J222" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K222" s="10"/>
-      <c r="L222" s="11" t="s">
+      <c r="K222" s="11"/>
+      <c r="L222" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M222" s="5"/>
@@ -12969,33 +12975,33 @@
       <c r="A223" s="5" t="s">
         <v>714</v>
       </c>
-      <c r="B223" s="10" t="s">
+      <c r="B223" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C223" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D223" s="10" t="s">
+      <c r="C223" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D223" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E223" s="10" t="s">
+      <c r="E223" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F223" s="10" t="s">
+      <c r="F223" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="G223" s="10" t="s">
+      <c r="G223" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H223" s="10"/>
-      <c r="I223" s="10" t="s">
+      <c r="H223" s="11"/>
+      <c r="I223" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="J223" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K223" s="10"/>
-      <c r="L223" s="11" t="s">
+      <c r="J223" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K223" s="11"/>
+      <c r="L223" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M223" s="5"/>
@@ -13013,27 +13019,27 @@
       <c r="A224" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="B224" s="10" t="s">
+      <c r="B224" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C224" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D224" s="10" t="s">
+      <c r="C224" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D224" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10" t="s">
+      <c r="E224" s="11"/>
+      <c r="F224" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G224" s="10"/>
-      <c r="H224" s="10"/>
-      <c r="I224" s="10"/>
-      <c r="J224" s="10" t="s">
+      <c r="G224" s="11"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+      <c r="J224" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K224" s="10"/>
-      <c r="L224" s="11" t="s">
+      <c r="K224" s="11"/>
+      <c r="L224" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M224" s="5"/>
@@ -13051,31 +13057,31 @@
       <c r="A225" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C225" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D225" s="10" t="s">
+      <c r="C225" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D225" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E225" s="10" t="s">
+      <c r="E225" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F225" s="10" t="s">
+      <c r="F225" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="G225" s="10"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="10" t="s">
+      <c r="G225" s="11"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="J225" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K225" s="10"/>
-      <c r="L225" s="11" t="s">
+      <c r="J225" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K225" s="11"/>
+      <c r="L225" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M225" s="5"/>
@@ -13090,48 +13096,48 @@
       <c r="V225" s="5"/>
     </row>
     <row r="226" spans="1:22">
-      <c r="A226" s="5" t="s">
+      <c r="A226" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="B226" s="5" t="s">
+      <c r="B226" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C226" s="5" t="s">
+      <c r="C226" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D226" s="6"/>
-      <c r="E226" s="5"/>
+      <c r="E226" s="2"/>
       <c r="F226" s="6"/>
-      <c r="G226" s="5"/>
-      <c r="H226" s="5"/>
-      <c r="I226" s="5"/>
-      <c r="J226" s="5" t="s">
+      <c r="G226" s="2"/>
+      <c r="H226" s="2"/>
+      <c r="I226" s="2"/>
+      <c r="J226" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="K226" s="5"/>
+      <c r="K226" s="2"/>
       <c r="L226" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M226" s="5" t="s">
+      <c r="M226" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="N226" s="5" t="s">
+      <c r="N226" s="2" t="s">
         <v>65</v>
       </c>
       <c r="O226" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="P226" s="5"/>
+      <c r="P226" s="2"/>
       <c r="Q226" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="R226" s="5"/>
-      <c r="S226" s="5"/>
-      <c r="T226" s="5"/>
-      <c r="U226" s="5" t="s">
+      <c r="R226" s="2"/>
+      <c r="S226" s="2"/>
+      <c r="T226" s="2"/>
+      <c r="U226" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="V226" s="5"/>
+      <c r="V226" s="2"/>
     </row>
     <row r="227" spans="1:22">
       <c r="A227" s="5" t="s">
@@ -13419,27 +13425,27 @@
       <c r="A232" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C232" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D232" s="10" t="s">
+      <c r="C232" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D232" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E232" s="10"/>
-      <c r="F232" s="10" t="s">
+      <c r="E232" s="11"/>
+      <c r="F232" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G232" s="10"/>
-      <c r="H232" s="10"/>
-      <c r="I232" s="10"/>
-      <c r="J232" s="10" t="s">
+      <c r="G232" s="11"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11"/>
+      <c r="J232" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K232" s="10"/>
-      <c r="L232" s="11" t="s">
+      <c r="K232" s="11"/>
+      <c r="L232" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M232" s="5"/>
@@ -13457,31 +13463,31 @@
       <c r="A233" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="B233" s="10" t="s">
+      <c r="B233" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C233" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D233" s="10" t="s">
+      <c r="C233" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D233" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E233" s="10" t="s">
+      <c r="E233" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F233" s="10" t="s">
+      <c r="F233" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="G233" s="10"/>
-      <c r="H233" s="10"/>
-      <c r="I233" s="10" t="s">
+      <c r="G233" s="11"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="J233" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K233" s="10"/>
-      <c r="L233" s="11" t="s">
+      <c r="J233" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K233" s="11"/>
+      <c r="L233" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M233" s="5"/>
@@ -13496,21 +13502,21 @@
       <c r="V233" s="5"/>
     </row>
     <row r="234" spans="1:22">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C234" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D234" s="5"/>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
+      <c r="C234" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
       <c r="J234" s="6" t="s">
         <v>319</v>
       </c>
@@ -13518,18 +13524,18 @@
       <c r="L234" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="M234" s="5" t="s">
+      <c r="M234" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="N234" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O234" s="5"/>
-      <c r="P234" s="5"/>
-      <c r="Q234" s="5"/>
-      <c r="R234" s="5"/>
-      <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
+      <c r="N234" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O234" s="2"/>
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
       <c r="U234" s="6" t="s">
         <v>478</v>
       </c>
@@ -13936,22 +13942,22 @@
       <c r="B242" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C242" s="10" t="s">
+      <c r="C242" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D242" s="10"/>
-      <c r="E242" s="10"/>
-      <c r="F242" s="10"/>
-      <c r="G242" s="10"/>
-      <c r="H242" s="10"/>
-      <c r="I242" s="10"/>
-      <c r="J242" s="10" t="s">
+      <c r="D242" s="11"/>
+      <c r="E242" s="11"/>
+      <c r="F242" s="11"/>
+      <c r="G242" s="11"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+      <c r="J242" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="K242" s="10" t="s">
+      <c r="K242" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="L242" s="11" t="s">
+      <c r="L242" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M242" s="5"/>
@@ -13969,27 +13975,27 @@
       <c r="A243" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="B243" s="10" t="s">
+      <c r="B243" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C243" s="10" t="s">
+      <c r="C243" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D243" s="10" t="s">
+      <c r="D243" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E243" s="10"/>
-      <c r="F243" s="10" t="s">
+      <c r="E243" s="11"/>
+      <c r="F243" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G243" s="10"/>
-      <c r="H243" s="10"/>
-      <c r="I243" s="10"/>
-      <c r="J243" s="10" t="s">
+      <c r="G243" s="11"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11"/>
+      <c r="J243" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K243" s="10"/>
-      <c r="L243" s="11" t="s">
+      <c r="K243" s="11"/>
+      <c r="L243" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M243" s="5"/>
@@ -14007,33 +14013,33 @@
       <c r="A244" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B244" s="10" t="s">
+      <c r="B244" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="C244" s="10" t="s">
+      <c r="C244" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D244" s="10" t="s">
+      <c r="D244" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="E244" s="10" t="s">
+      <c r="E244" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F244" s="10" t="s">
+      <c r="F244" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="G244" s="10" t="s">
+      <c r="G244" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H244" s="10"/>
-      <c r="I244" s="10" t="s">
+      <c r="H244" s="11"/>
+      <c r="I244" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="J244" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K244" s="10"/>
-      <c r="L244" s="11" t="s">
+      <c r="J244" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K244" s="11"/>
+      <c r="L244" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M244" s="5"/>
@@ -14054,24 +14060,24 @@
       <c r="B245" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C245" s="10" t="s">
+      <c r="C245" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D245" s="10" t="s">
+      <c r="D245" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E245" s="10"/>
-      <c r="F245" s="10" t="s">
+      <c r="E245" s="11"/>
+      <c r="F245" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G245" s="10"/>
-      <c r="H245" s="10"/>
-      <c r="I245" s="10"/>
-      <c r="J245" s="10" t="s">
+      <c r="G245" s="11"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11"/>
+      <c r="J245" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K245" s="10"/>
-      <c r="L245" s="11" t="s">
+      <c r="K245" s="11"/>
+      <c r="L245" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M245" s="5"/>
@@ -14089,33 +14095,33 @@
       <c r="A246" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="B246" s="10" t="s">
+      <c r="B246" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C246" s="10" t="s">
+      <c r="C246" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D246" s="10" t="s">
+      <c r="D246" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E246" s="10" t="s">
+      <c r="E246" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F246" s="10" t="s">
+      <c r="F246" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G246" s="10" t="s">
+      <c r="G246" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="H246" s="10"/>
-      <c r="I246" s="10" t="s">
+      <c r="H246" s="11"/>
+      <c r="I246" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J246" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K246" s="10"/>
-      <c r="L246" s="11" t="s">
+      <c r="J246" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K246" s="11"/>
+      <c r="L246" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M246" s="5"/>
@@ -14133,33 +14139,33 @@
       <c r="A247" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="B247" s="10" t="s">
+      <c r="B247" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C247" s="10" t="s">
+      <c r="C247" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D247" s="10" t="s">
+      <c r="D247" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="E247" s="10" t="s">
+      <c r="E247" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F247" s="10" t="s">
+      <c r="F247" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="G247" s="10"/>
-      <c r="H247" s="10"/>
-      <c r="I247" s="10" t="s">
+      <c r="G247" s="11"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="J247" s="10" t="s">
+      <c r="J247" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="K247" s="10" t="s">
+      <c r="K247" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="L247" s="11" t="s">
+      <c r="L247" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M247" s="5"/>
@@ -14180,20 +14186,20 @@
       <c r="B248" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="C248" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D248" s="10"/>
-      <c r="E248" s="10"/>
-      <c r="F248" s="10"/>
-      <c r="G248" s="10"/>
-      <c r="H248" s="10"/>
-      <c r="I248" s="10"/>
-      <c r="J248" s="10" t="s">
+      <c r="C248" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D248" s="11"/>
+      <c r="E248" s="11"/>
+      <c r="F248" s="11"/>
+      <c r="G248" s="11"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+      <c r="J248" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K248" s="10"/>
-      <c r="L248" s="11" t="s">
+      <c r="K248" s="11"/>
+      <c r="L248" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M248" s="5"/>
@@ -14211,27 +14217,27 @@
       <c r="A249" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="B249" s="10" t="s">
+      <c r="B249" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C249" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D249" s="10" t="s">
+      <c r="C249" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D249" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E249" s="10"/>
-      <c r="F249" s="10" t="s">
+      <c r="E249" s="11"/>
+      <c r="F249" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G249" s="10"/>
-      <c r="H249" s="10"/>
-      <c r="I249" s="10"/>
-      <c r="J249" s="10" t="s">
+      <c r="G249" s="11"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+      <c r="J249" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K249" s="10"/>
-      <c r="L249" s="11" t="s">
+      <c r="K249" s="11"/>
+      <c r="L249" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M249" s="5"/>
@@ -14249,33 +14255,33 @@
       <c r="A250" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="B250" s="10" t="s">
+      <c r="B250" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C250" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D250" s="10" t="s">
+      <c r="C250" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D250" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="E250" s="10" t="s">
+      <c r="E250" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="F250" s="10" t="s">
+      <c r="F250" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="G250" s="10" t="s">
+      <c r="G250" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H250" s="10"/>
-      <c r="I250" s="10" t="s">
+      <c r="H250" s="11"/>
+      <c r="I250" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="J250" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K250" s="10"/>
-      <c r="L250" s="11" t="s">
+      <c r="J250" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K250" s="11"/>
+      <c r="L250" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M250" s="5"/>
@@ -14293,27 +14299,27 @@
       <c r="A251" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="B251" s="10" t="s">
+      <c r="B251" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C251" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D251" s="10" t="s">
+      <c r="C251" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D251" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E251" s="10"/>
-      <c r="F251" s="10" t="s">
+      <c r="E251" s="11"/>
+      <c r="F251" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G251" s="10"/>
-      <c r="H251" s="10"/>
-      <c r="I251" s="10"/>
-      <c r="J251" s="10" t="s">
+      <c r="G251" s="11"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11"/>
+      <c r="J251" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K251" s="10"/>
-      <c r="L251" s="11" t="s">
+      <c r="K251" s="11"/>
+      <c r="L251" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M251" s="5"/>
@@ -14331,31 +14337,31 @@
       <c r="A252" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B252" s="10" t="s">
+      <c r="B252" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C252" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D252" s="10" t="s">
+      <c r="C252" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D252" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E252" s="10" t="s">
+      <c r="E252" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="F252" s="10" t="s">
+      <c r="F252" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="G252" s="10"/>
-      <c r="H252" s="10"/>
-      <c r="I252" s="10" t="s">
+      <c r="G252" s="11"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="J252" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K252" s="10"/>
-      <c r="L252" s="11" t="s">
+      <c r="J252" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K252" s="11"/>
+      <c r="L252" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M252" s="5"/>
@@ -14376,22 +14382,22 @@
       <c r="B253" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C253" s="10"/>
-      <c r="D253" s="10" t="s">
+      <c r="C253" s="11"/>
+      <c r="D253" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E253" s="10"/>
-      <c r="F253" s="10" t="s">
+      <c r="E253" s="11"/>
+      <c r="F253" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G253" s="10"/>
-      <c r="H253" s="10"/>
-      <c r="I253" s="10"/>
-      <c r="J253" s="10" t="s">
+      <c r="G253" s="11"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11"/>
+      <c r="J253" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="K253" s="10"/>
-      <c r="L253" s="11" t="s">
+      <c r="K253" s="11"/>
+      <c r="L253" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M253" s="5"/>
@@ -14409,29 +14415,29 @@
       <c r="A254" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="B254" s="10" t="s">
+      <c r="B254" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C254" s="10"/>
-      <c r="D254" s="10" t="s">
+      <c r="C254" s="11"/>
+      <c r="D254" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E254" s="10" t="s">
+      <c r="E254" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F254" s="10" t="s">
+      <c r="F254" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G254" s="10"/>
-      <c r="H254" s="10"/>
-      <c r="I254" s="10" t="s">
+      <c r="G254" s="11"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="J254" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K254" s="10"/>
-      <c r="L254" s="11" t="s">
+      <c r="J254" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K254" s="11"/>
+      <c r="L254" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M254" s="5"/>
@@ -14449,29 +14455,29 @@
       <c r="A255" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="B255" s="10" t="s">
+      <c r="B255" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C255" s="10"/>
-      <c r="D255" s="10" t="s">
+      <c r="C255" s="11"/>
+      <c r="D255" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="E255" s="10" t="s">
+      <c r="E255" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F255" s="10" t="s">
+      <c r="F255" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G255" s="10"/>
-      <c r="H255" s="10"/>
-      <c r="I255" s="10" t="s">
+      <c r="G255" s="11"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="J255" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="K255" s="10"/>
-      <c r="L255" s="11" t="s">
+      <c r="J255" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="K255" s="11"/>
+      <c r="L255" s="12" t="s">
         <v>371</v>
       </c>
       <c r="M255" s="5"/>
@@ -14502,7 +14508,7 @@
       <c r="L256" s="8" t="s">
         <v>370</v>
       </c>
-      <c r="M256" s="9" t="s">
+      <c r="M256" s="13" t="s">
         <v>383</v>
       </c>
       <c r="N256" s="9"/>
